--- a/DMSNewVSale_2025-10-16_19-17.xlsx
+++ b/DMSNewVSale_2025-10-16_19-17.xlsx
@@ -459,6 +459,12 @@
   </si>
   <si>
     <t>92.0000</t>
+  </si>
+  <si>
+    <t>LIDOCAINE 10% TOPICAL SPRAY 15 GM</t>
+  </si>
+  <si>
+    <t>38.0000</t>
   </si>
   <si>
     <t>MAALOX 20 ORAL SACHET SUSP.</t>
@@ -2723,7 +2729,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2733,14 +2739,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>153</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2749,14 +2755,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2766,14 +2772,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>15</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2782,7 +2788,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2803,10 +2809,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2832,11 +2838,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2848,7 +2854,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2865,14 +2871,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2881,14 +2887,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2898,11 +2904,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>15</v>
@@ -2914,14 +2920,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2931,14 +2937,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2954,7 +2960,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2968,7 +2974,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2980,7 +2986,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2993,11 +2999,11 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3020,24 +3026,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3046,14 +3052,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3063,7 +3069,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3086,7 +3092,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3096,11 +3102,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>15</v>
@@ -3112,7 +3118,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3129,14 +3135,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3145,14 +3151,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3162,11 +3168,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3178,14 +3184,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3195,11 +3201,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3211,14 +3217,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3228,14 +3234,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3244,14 +3250,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3261,14 +3267,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3277,14 +3283,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3294,14 +3300,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3310,14 +3316,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3327,14 +3333,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3343,14 +3349,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3360,14 +3366,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>15</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3376,14 +3382,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3393,14 +3399,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3416,24 +3422,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3442,14 +3448,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3459,14 +3465,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>135</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3475,14 +3481,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3492,14 +3498,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>41</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3508,14 +3514,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3525,14 +3531,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3558,11 +3564,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3574,14 +3580,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3591,14 +3597,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>73</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>227</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3607,7 +3613,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3624,11 +3630,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>229</v>
@@ -3657,14 +3663,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>96</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3680,7 +3686,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>233</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3690,14 +3696,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3723,11 +3729,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3739,14 +3745,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>237</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3756,14 +3762,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>96</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3772,7 +3778,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3789,14 +3795,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3822,11 +3828,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3838,14 +3844,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3855,14 +3861,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>135</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3878,7 +3884,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3888,51 +3894,84 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>246</v>
       </c>
-      <c t="s" r="Q82" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" ht="25.5" customHeight="1">
-      <c r="N83" s="13">
-        <v>4019.2399999999998</v>
-      </c>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>135</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>34</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
         <v>247</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>248</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c t="s" r="Q83" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" ht="26.25" customHeight="1">
+      <c r="N84" s="13">
+        <v>4057.2399999999998</v>
+      </c>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
         <v>249</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>250</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>251</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4321,10 +4360,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
